--- a/6月提成汇总表/宣传册派发提成.xlsx
+++ b/6月提成汇总表/宣传册派发提成.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>门店</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,95 +131,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>张   波</t>
+  </si>
+  <si>
+    <t>五月份保险销售提成表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售种类（元）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提成25%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提成总额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王静</t>
+  </si>
+  <si>
+    <t>张燕</t>
+  </si>
+  <si>
+    <t>陈瑨</t>
+  </si>
+  <si>
+    <t>焦燕琴</t>
+  </si>
+  <si>
+    <t>张静</t>
+  </si>
+  <si>
+    <t>芦秋</t>
+  </si>
+  <si>
+    <t>胡敏</t>
+  </si>
+  <si>
+    <t>综合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月份帮帮家政宣传册派发提成表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：上个月未及时提交的提成表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">制表人   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>审 批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>张   波</t>
-  </si>
-  <si>
-    <t>审 批</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五月份保险销售提成表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售人员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售种类（元）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提成25%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提成总额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王静</t>
-  </si>
-  <si>
-    <t>张燕</t>
-  </si>
-  <si>
-    <t>陈瑨</t>
-  </si>
-  <si>
-    <t>焦燕琴</t>
-  </si>
-  <si>
-    <t>张静</t>
-  </si>
-  <si>
-    <t>芦秋</t>
-  </si>
-  <si>
-    <t>胡敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘妮娜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额(元）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">制表人 ：  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审 批：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场发展部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产运营汉灌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>综合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五月份帮帮家政宣传册派发提成表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：上个月未及时提交的提成表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">制表人   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审 批</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张   波</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘妮娜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -242,6 +274,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -320,28 +353,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +365,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,556 +690,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="27">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="40.5">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>200</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <f>$C3*0.5</f>
         <v>100</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <f>0.25*$D3</f>
         <v>25</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>300</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D14" si="0">$C4*0.5</f>
         <v>150</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <f t="shared" ref="E4:E14" si="1">0.25*$D4</f>
         <v>37.5</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>500</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>500</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>500</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>400</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>300</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>500</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>600</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>600</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>200</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>400</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8">
         <f>SUM(C3:C14)</f>
         <v>5000</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="8">
         <f>SUM(D3:D14)</f>
         <v>2500</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="9">
         <f>SUM(E3:E14)</f>
         <v>625</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="10">
         <f>E15</f>
         <v>625</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="22.5">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="22.5">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="27">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="E20" s="4">
+        <f>C20*D20</f>
         <v>40</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="4">
         <f>C20*D20*0.25</f>
         <v>10</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>40</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" ref="E21:E27" si="2">C21*D21</f>
+        <v>40</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" ref="F21:F27" si="3">C21*D21*0.25</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D23" s="4">
         <v>40</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" ref="E21:E27" si="2">C21*D21*0.25</f>
+      <c r="E23" s="4">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D24" s="4">
         <v>40</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E24" s="4">
         <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="G24" s="4"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="4">
         <v>40</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E25" s="4">
         <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>40</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="1">
-        <v>40</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D27" s="4">
+        <v>60</v>
+      </c>
+      <c r="E27" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>40</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>40</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>60</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8">
         <f>SUM(C20:C27)</f>
         <v>9</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4">
-        <f>SUM(E20:E27)</f>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8">
+        <f>SUM(F20:F27)</f>
         <v>95</v>
       </c>
-      <c r="F28" s="6">
-        <f>SUM(C28:E28)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="G28" s="10">
+        <f>SUM(D28:F28)</f>
+        <v>95</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A31:G32"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A31:H32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
